--- a/biology/Botanique/Ajuga_chamaepitys/Ajuga_chamaepitys.xlsx
+++ b/biology/Botanique/Ajuga_chamaepitys/Ajuga_chamaepitys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bugle Petit Pin, Bugle jaune, Ive, Ivette
 La Bugle Petit Pin, Ajuga chamaepitys est une espèce de plante herbacée annuelle à bisannuelle de la famille des Lamiaceae d'origine et de répartition méditerranéenne. Cette espèce de plantes porte également les noms communs d'Ive ou d'Ivette, ce qui la rend connue des cruciverbistes. Le nom d'Ive provient de la forme féminine d'if, et le nom de Petit Pin vient du fait de la forte odeur résineuse dégagée par la plante.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom « ive » vient d'une ancienne forme féminine de l'« if[1] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom « ive » vient d'une ancienne forme féminine de l'« if ».
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De petite taille (5 à 20 cm), elle possède des feuilles visqueuses, pubescentes et profondément divisées en trois à cinq segments. Ses tiges sont couchées, rameuses et velues. Cette espèce de plantes à petites fleurs jaune vif maculées à la base de taches rougeâtres, fleurit entre avril et octobre. La pollinisation est assurée par les insectes (plante entomogame). 
 Les fruits sont des akènes. 
@@ -575,7 +591,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Messicole non stricte, elle pousse sur des coteaux arides, généralement calcaires, de l'ouest de l’Europe à l'ouest, dans les zones méditerranéennes (jusqu'à l'Afrique du Nord) au sud et jusqu'au centre de l’Asie à l'est.
 </t>
@@ -606,9 +624,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 mars 2012)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 mars 2012) :
 Ajuga chamaepitys subsp. chamaepitys
 Ajuga chamaepitys subsp. chia (Schreb.) Arcang.
 Ajuga chamaepitys subsp. cuneatifolia (Stapf) P.H.Davis
@@ -650,9 +670,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous le nom chamaepitys, ses feuilles étaient un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle [3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous le nom chamaepitys, ses feuilles étaient un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle .
 </t>
         </is>
       </c>
